--- a/workspace/shoppingBackEnd/Mukesh Kumar Jangid.xlsx
+++ b/workspace/shoppingBackEnd/Mukesh Kumar Jangid.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="day" sheetId="4" r:id="rId1"/>
+    <sheet name="day 1" sheetId="4" r:id="rId1"/>
     <sheet name="error report" sheetId="2" r:id="rId2"/>
     <sheet name="qA" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>S.No</t>
   </si>
@@ -282,13 +282,142 @@
   </si>
   <si>
     <t>add ProductDaoImpl = (ProductDao)context.getBean("ProductDaoImpl"); in init() method in testCasse class</t>
+  </si>
+  <si>
+    <t>Days 6-3-2017</t>
+  </si>
+  <si>
+    <t>Value not found error in jUnit</t>
+  </si>
+  <si>
+    <t>add  categoryDao.list().size();</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>what is shortkey to comment of code in eclipse</t>
+  </si>
+  <si>
+    <t>from website</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/5534748/eclipse-comment-uncomment-shortcut</t>
+  </si>
+  <si>
+    <t>For single line comment you can use Ctrl + / and for multiple line comment you can use Ctrl + Shift + / after selecting the lines you want to comment in java editor.</t>
+  </si>
+  <si>
+    <t>6th march2017</t>
+  </si>
+  <si>
+    <t>Implement test cases for create, update, Delete, Fetch data</t>
+  </si>
+  <si>
+    <t>3.5 hr</t>
+  </si>
+  <si>
+    <t>no bean class found in Shopping Backend Hierarchy</t>
+  </si>
+  <si>
+    <t>Add Base package in dispatcher Servlet.xml ex.  &lt;context:component-scan base-package="com.gurgaon.delhi.shoppingBackEnd" /&gt;</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Linking of internal Resources</t>
+  </si>
+  <si>
+    <t>2.5Hr</t>
+  </si>
+  <si>
+    <t>Linking of backend with Frondenda and other Changes in classes</t>
+  </si>
+  <si>
+    <t>TableId: MyTable-Ajax Error</t>
+  </si>
+  <si>
+    <t>Wrong path of project in ajax url</t>
+  </si>
+  <si>
+    <t>Days 7/03/2017</t>
+  </si>
+  <si>
+    <t>Landing page url not mapped</t>
+  </si>
+  <si>
+    <t>change base-pakage to /* in front page</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/28316187/org-springframework-web-servlet-pagenotfound-nohandlerfound-no-mapping-found-for</t>
+  </si>
+  <si>
+    <t>Context initialization failed</t>
+  </si>
+  <si>
+    <t>It looks like i may be trying to use Java 8 with Spring 3.2.0, which doesn't support it. You will need to use Spring 4 instead, or downgrade to Java 7.</t>
+  </si>
+  <si>
+    <t>MOdelAndView can not be resolved</t>
+  </si>
+  <si>
+    <t>again download spring-webMvc depencency in pom.xml at front end</t>
+  </si>
+  <si>
+    <t>nested exception is com.fasterxml.jackson.databind.JsonMappingException: failed to lazily initialize a collection of role</t>
+  </si>
+  <si>
+    <t>Use json back reference and manager reference</t>
+  </si>
+  <si>
+    <t>http://www.baeldung.com/jackson-bidirectional-relationships-and-infinite-recursion</t>
+  </si>
+  <si>
+    <t>Days 8/3/2017</t>
+  </si>
+  <si>
+    <t>Resources  not found like images and js files</t>
+  </si>
+  <si>
+    <t>change javax version 1.5 to 1.7</t>
+  </si>
+  <si>
+    <t>Days 9/3/2017</t>
+  </si>
+  <si>
+    <t>'items' must not be null</t>
+  </si>
+  <si>
+    <t>items' must not be null in addminIndexPage to generate dropdown List</t>
+  </si>
+  <si>
+    <t>No validator could be found for constraint 'javax.validation.constraints.Size' validating type 'com.gurgaon.delhi.shoppingBackEnd.dto.Category'. Check configuration for 'category'</t>
+  </si>
+  <si>
+    <t>Remove @valid from adminController</t>
+  </si>
+  <si>
+    <t>Could not commit Hibernate transaction</t>
+  </si>
+  <si>
+    <t>Days 10/03/2017</t>
+  </si>
+  <si>
+    <t>rror during managed flush [Batch update returned unexpected row count from update [0]; actual row count: 0; expected: 1]</t>
+  </si>
+  <si>
+    <t>id field was not in delete or update jsp page so product id was initialize by 0 automatically</t>
+  </si>
+  <si>
+    <t>take spring textbox of product od id in deleteorupdate.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +458,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +530,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,6 +583,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -722,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -730,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -909,7 +1047,269 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="42.75" customHeight="1">
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8">
+      <c r="C11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -923,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1229,39 +1629,176 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,7 +1811,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1300,10 +1837,18 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11"/>
